--- a/Pivot Table.xlsx
+++ b/Pivot Table.xlsx
@@ -8,22 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel\Advanced Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4498330-C039-40C8-B4C1-ACDE2C5DF67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26DBB13-5654-4CC3-AB3D-38C77C2E95FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAB82B24-23A9-4744-A41B-BA2B00977C2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AAB82B24-23A9-4744-A41B-BA2B00977C2F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Book2" sheetId="1" r:id="rId1"/>
+    <sheet name="Pivot Chart" sheetId="2" r:id="rId1"/>
+    <sheet name="Sclicer" sheetId="3" r:id="rId2"/>
+    <sheet name="Book2" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_Item">#N/A</definedName>
+    <definedName name="Slicer_Region">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="54">
   <si>
     <t>OrderDate</t>
   </si>
@@ -182,6 +199,9 @@
   </si>
   <si>
     <t>Count of Rep</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
   </si>
 </sst>
 </file>
@@ -665,14 +685,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -718,7 +742,12 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -731,6 +760,1141 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Pivot Table.xlsx]Pivot Chart!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sum of Total by Region</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot Chart'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot Chart'!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot Chart'!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.51592510328663932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34226954034950657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14180535636385411</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34C1-422D-9085-970800FDC4B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B8387E-8946-FA50-5A17-E24FAB5C6E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Region">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BEEEA8-3A30-EFC8-F1D1-1C5D4B4294F0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6057900" y="518160"/>
+              <a:ext cx="1828800" cy="2466975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Item">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A732A4-E806-41CE-67B1-FD57DB56C5C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Item"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8671560" y="297180"/>
+              <a:ext cx="1828800" cy="2466975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ROHIT CHAVAN" refreshedDate="45977.664085763892" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="39" xr:uid="{5F66027C-A4CE-4A5D-A78C-064CD2D17DEC}">
   <cacheSource type="worksheet">
@@ -738,7 +1902,47 @@
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="OrderDate" numFmtId="14">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2020-01-04T00:00:00" maxDate="2021-10-10T00:00:00"/>
+      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2020-01-04T00:00:00" maxDate="2021-10-10T00:00:00" count="39">
+        <d v="2020-06-01T00:00:00"/>
+        <s v="1-23-2020"/>
+        <d v="2020-09-02T00:00:00"/>
+        <s v="2-26-2020"/>
+        <s v="3-15-2020"/>
+        <d v="2020-01-04T00:00:00"/>
+        <s v="4-18-2020"/>
+        <d v="2020-05-05T00:00:00"/>
+        <s v="5-22-2020"/>
+        <d v="2020-08-06T00:00:00"/>
+        <s v="6-25-2020"/>
+        <d v="2020-12-07T00:00:00"/>
+        <s v="7-29-2020"/>
+        <s v="8-15-2020"/>
+        <d v="2020-01-09T00:00:00"/>
+        <s v="9-18-2020"/>
+        <d v="2020-05-10T00:00:00"/>
+        <s v="10-22-2020"/>
+        <d v="2020-08-11T00:00:00"/>
+        <s v="11-25-2020"/>
+        <d v="2020-12-12T00:00:00"/>
+        <s v="12-29-2020"/>
+        <s v="1-15-2021"/>
+        <d v="2021-01-02T00:00:00"/>
+        <s v="2-18-2021"/>
+        <d v="2021-07-03T00:00:00"/>
+        <s v="3-24-2021"/>
+        <d v="2021-10-04T00:00:00"/>
+        <s v="4-27-2021"/>
+        <s v="5-14-2021"/>
+        <s v="5-31-2021"/>
+        <s v="6-17-2021"/>
+        <d v="2021-04-07T00:00:00"/>
+        <s v="7-21-2021"/>
+        <d v="2021-07-08T00:00:00"/>
+        <s v="8-24-2021"/>
+        <d v="2021-10-09T00:00:00"/>
+        <s v="9-27-2021"/>
+        <s v="10-14-2021"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Region" numFmtId="0">
       <sharedItems count="3">
@@ -783,7 +1987,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1529419935"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -792,7 +1996,7 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="39">
   <r>
-    <d v="2020-06-01T00:00:00"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -801,7 +2005,7 @@
     <n v="189.05"/>
   </r>
   <r>
-    <s v="1-23-2020"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
@@ -810,7 +2014,7 @@
     <n v="999.5"/>
   </r>
   <r>
-    <d v="2020-09-02T00:00:00"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
@@ -819,7 +2023,7 @@
     <n v="179.64"/>
   </r>
   <r>
-    <s v="2-26-2020"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="3"/>
     <x v="2"/>
@@ -828,7 +2032,7 @@
     <n v="539.73"/>
   </r>
   <r>
-    <s v="3-15-2020"/>
+    <x v="4"/>
     <x v="2"/>
     <x v="4"/>
     <x v="0"/>
@@ -837,7 +2041,7 @@
     <n v="167.44"/>
   </r>
   <r>
-    <d v="2020-01-04T00:00:00"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -846,7 +2050,7 @@
     <n v="299.39999999999998"/>
   </r>
   <r>
-    <s v="4-18-2020"/>
+    <x v="6"/>
     <x v="1"/>
     <x v="5"/>
     <x v="0"/>
@@ -855,7 +2059,7 @@
     <n v="149.25"/>
   </r>
   <r>
-    <d v="2020-05-05T00:00:00"/>
+    <x v="7"/>
     <x v="1"/>
     <x v="2"/>
     <x v="0"/>
@@ -864,7 +2068,7 @@
     <n v="449.1"/>
   </r>
   <r>
-    <s v="5-22-2020"/>
+    <x v="8"/>
     <x v="2"/>
     <x v="6"/>
     <x v="0"/>
@@ -873,7 +2077,7 @@
     <n v="63.68"/>
   </r>
   <r>
-    <d v="2020-08-06T00:00:00"/>
+    <x v="9"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -882,7 +2086,7 @@
     <n v="539.4"/>
   </r>
   <r>
-    <s v="6-25-2020"/>
+    <x v="10"/>
     <x v="1"/>
     <x v="7"/>
     <x v="0"/>
@@ -891,7 +2095,7 @@
     <n v="449.1"/>
   </r>
   <r>
-    <d v="2020-12-07T00:00:00"/>
+    <x v="11"/>
     <x v="0"/>
     <x v="8"/>
     <x v="1"/>
@@ -900,7 +2104,7 @@
     <n v="57.71"/>
   </r>
   <r>
-    <s v="7-29-2020"/>
+    <x v="12"/>
     <x v="0"/>
     <x v="9"/>
     <x v="1"/>
@@ -909,7 +2113,7 @@
     <n v="1619.19"/>
   </r>
   <r>
-    <s v="8-15-2020"/>
+    <x v="13"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -918,7 +2122,7 @@
     <n v="174.65"/>
   </r>
   <r>
-    <d v="2020-01-09T00:00:00"/>
+    <x v="14"/>
     <x v="1"/>
     <x v="10"/>
     <x v="3"/>
@@ -927,7 +2131,7 @@
     <n v="250"/>
   </r>
   <r>
-    <s v="9-18-2020"/>
+    <x v="15"/>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
@@ -936,7 +2140,7 @@
     <n v="255.84"/>
   </r>
   <r>
-    <d v="2020-05-10T00:00:00"/>
+    <x v="16"/>
     <x v="1"/>
     <x v="7"/>
     <x v="1"/>
@@ -945,7 +2149,7 @@
     <n v="251.72"/>
   </r>
   <r>
-    <s v="10-22-2020"/>
+    <x v="17"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
@@ -954,7 +2158,7 @@
     <n v="575.36"/>
   </r>
   <r>
-    <d v="2020-08-11T00:00:00"/>
+    <x v="18"/>
     <x v="0"/>
     <x v="9"/>
     <x v="2"/>
@@ -963,7 +2167,7 @@
     <n v="299.85000000000002"/>
   </r>
   <r>
-    <s v="11-25-2020"/>
+    <x v="19"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
@@ -972,7 +2176,7 @@
     <n v="479.04"/>
   </r>
   <r>
-    <d v="2020-12-12T00:00:00"/>
+    <x v="20"/>
     <x v="1"/>
     <x v="10"/>
     <x v="0"/>
@@ -981,7 +2185,7 @@
     <n v="86.43"/>
   </r>
   <r>
-    <s v="12-29-2020"/>
+    <x v="21"/>
     <x v="0"/>
     <x v="9"/>
     <x v="4"/>
@@ -990,7 +2194,7 @@
     <n v="1183.26"/>
   </r>
   <r>
-    <s v="1-15-2021"/>
+    <x v="22"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
@@ -999,7 +2203,7 @@
     <n v="413.54"/>
   </r>
   <r>
-    <d v="2021-01-02T00:00:00"/>
+    <x v="23"/>
     <x v="1"/>
     <x v="10"/>
     <x v="1"/>
@@ -1008,7 +2212,7 @@
     <n v="1305"/>
   </r>
   <r>
-    <s v="2-18-2021"/>
+    <x v="24"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -1017,7 +2221,7 @@
     <n v="19.96"/>
   </r>
   <r>
-    <d v="2021-07-03T00:00:00"/>
+    <x v="25"/>
     <x v="2"/>
     <x v="4"/>
     <x v="1"/>
@@ -1026,7 +2230,7 @@
     <n v="139.93"/>
   </r>
   <r>
-    <s v="3-24-2021"/>
+    <x v="26"/>
     <x v="1"/>
     <x v="2"/>
     <x v="4"/>
@@ -1035,7 +2239,7 @@
     <n v="249.5"/>
   </r>
   <r>
-    <d v="2021-10-04T00:00:00"/>
+    <x v="27"/>
     <x v="1"/>
     <x v="5"/>
     <x v="0"/>
@@ -1044,7 +2248,7 @@
     <n v="131.34"/>
   </r>
   <r>
-    <s v="4-27-2021"/>
+    <x v="28"/>
     <x v="0"/>
     <x v="8"/>
     <x v="2"/>
@@ -1053,7 +2257,7 @@
     <n v="479.04"/>
   </r>
   <r>
-    <s v="5-14-2021"/>
+    <x v="29"/>
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
@@ -1062,7 +2266,7 @@
     <n v="68.37"/>
   </r>
   <r>
-    <s v="5-31-2021"/>
+    <x v="30"/>
     <x v="1"/>
     <x v="3"/>
     <x v="1"/>
@@ -1071,7 +2275,7 @@
     <n v="719.2"/>
   </r>
   <r>
-    <s v="6-17-2021"/>
+    <x v="31"/>
     <x v="1"/>
     <x v="1"/>
     <x v="3"/>
@@ -1080,7 +2284,7 @@
     <n v="625"/>
   </r>
   <r>
-    <d v="2021-04-07T00:00:00"/>
+    <x v="32"/>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
@@ -1089,7 +2293,7 @@
     <n v="309.38"/>
   </r>
   <r>
-    <s v="7-21-2021"/>
+    <x v="33"/>
     <x v="1"/>
     <x v="7"/>
     <x v="4"/>
@@ -1098,7 +2302,7 @@
     <n v="686.95"/>
   </r>
   <r>
-    <d v="2021-07-08T00:00:00"/>
+    <x v="34"/>
     <x v="1"/>
     <x v="1"/>
     <x v="4"/>
@@ -1107,7 +2311,7 @@
     <n v="1005.9"/>
   </r>
   <r>
-    <s v="8-24-2021"/>
+    <x v="35"/>
     <x v="2"/>
     <x v="4"/>
     <x v="3"/>
@@ -1116,7 +2320,7 @@
     <n v="825"/>
   </r>
   <r>
-    <d v="2021-10-09T00:00:00"/>
+    <x v="36"/>
     <x v="1"/>
     <x v="3"/>
     <x v="0"/>
@@ -1125,7 +2329,7 @@
     <n v="9.0299999999999994"/>
   </r>
   <r>
-    <s v="9-27-2021"/>
+    <x v="37"/>
     <x v="2"/>
     <x v="4"/>
     <x v="2"/>
@@ -1134,7 +2338,7 @@
     <n v="151.24"/>
   </r>
   <r>
-    <s v="10-14-2021"/>
+    <x v="38"/>
     <x v="2"/>
     <x v="6"/>
     <x v="1"/>
@@ -1146,7 +2350,216 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E307F593-299F-4C86-9A0C-82D7C2A6C397}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AB5FE7EB-BC28-46E3-A94B-EA1F7AFFA0D7}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total" fld="6" showDataAs="percentOfTotal" baseField="1" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FA1DE5D-2913-4171-8DBB-3D4A45439D88}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="40">
+        <item x="38"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="1"/>
+        <item x="24"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="6"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="8"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="10"/>
+        <item x="33"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="35"/>
+        <item x="15"/>
+        <item x="37"/>
+        <item x="5"/>
+        <item x="14"/>
+        <item x="7"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="25"/>
+        <item x="34"/>
+        <item x="27"/>
+        <item x="36"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E307F593-299F-4C86-9A0C-82D7C2A6C397}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="Q1:T12" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1301,8 +2714,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{426E5F4F-ED05-4285-9646-C6FC422181DE}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{426E5F4F-ED05-4285-9646-C6FC422181DE}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="J1:N33" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="7">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -1511,6 +2924,65 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Region" xr10:uid="{5AA74669-062A-436C-9A87-2E04276A3693}" sourceName="Region">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable4"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1529419935">
+      <items count="3">
+        <i x="1" s="1"/>
+        <i x="0"/>
+        <i x="2"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Item" xr10:uid="{B07B5C79-E5FA-4C75-8041-769B1766175A}" sourceName="Item">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable4"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1529419935">
+      <items count="5">
+        <i x="1"/>
+        <i x="3"/>
+        <i x="2" s="1"/>
+        <i x="4" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Region" xr10:uid="{5F9B9EFE-73A8-4F4D-B306-031C8869AF2E}" cache="Slicer_Region" caption="Region" rowHeight="234950"/>
+  <slicer name="Item" xr10:uid="{0203D37A-E9D8-4116-AC18-EDD9FFE1DC80}" cache="Slicer_Item" caption="Item" rowHeight="234950"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAE131F1-66DB-46DD-B74F-33CB274402D4}" name="Table1" displayName="Table1" ref="A1:G40" totalsRowShown="0">
+  <autoFilter ref="A1:G40" xr:uid="{EAE131F1-66DB-46DD-B74F-33CB274402D4}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{4D6546B7-BE05-4B2B-A38A-BB950934098C}" name="OrderDate" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7E4011A0-993C-4D91-A396-9C61F8BD8134}" name="Region"/>
+    <tableColumn id="3" xr3:uid="{40B100AC-7DC8-485A-A98F-CA179E859CBD}" name="Rep"/>
+    <tableColumn id="4" xr3:uid="{8525536D-698F-48B7-947D-1F054DD76852}" name="Item"/>
+    <tableColumn id="5" xr3:uid="{3FB08160-9708-455C-A12B-78D7C54421E9}" name="Units"/>
+    <tableColumn id="6" xr3:uid="{61B9018D-3047-465C-9C6F-6F0B43C6A6D0}" name="UnitCost"/>
+    <tableColumn id="7" xr3:uid="{B4D96838-6407-446E-AC95-3543B8837F9B}" name="Total"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1809,21 +3281,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DA203B-98B8-46DA-9A68-243CA19CE591}">
-  <dimension ref="A1:T40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB840F4-D5E1-4311-A499-C9B520B1802B}">
+  <dimension ref="A3:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.51592510328663932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.34226954034950657</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.14180535636385411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04B28D-8C22-419B-8602-DCBC3265097F}">
+  <dimension ref="A3:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="39" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>280.59000000000003</v>
+      </c>
+      <c r="E5" s="5">
+        <v>280.59000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5">
+        <v>539.73</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E6" s="5">
+        <v>617.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>249.5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>628.74</v>
+      </c>
+      <c r="E7" s="5">
+        <v>878.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>1484.94</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
+        <v>1484.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5">
+        <v>686.95</v>
+      </c>
+      <c r="D9" s="5">
+        <v>449.1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1136.0500000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5">
+        <v>86.43</v>
+      </c>
+      <c r="E10" s="5">
+        <v>86.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="5">
+        <v>539.73</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2421.3900000000003</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1522.26</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4483.380000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DA203B-98B8-46DA-9A68-243CA19CE591}">
+  <dimension ref="A1:T40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -1921,10 +3609,10 @@
       <c r="R2" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2">
         <v>2</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2">
         <v>2</v>
       </c>
     </row>
@@ -1956,21 +3644,19 @@
       <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3">
         <v>1132.74</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
       <c r="Q3" t="s">
         <v>14</v>
       </c>
       <c r="R3" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3">
         <v>5</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3">
         <v>5</v>
       </c>
     </row>
@@ -2002,21 +3688,19 @@
       <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4">
+      <c r="M4">
         <v>57.71</v>
       </c>
-      <c r="N4" s="4"/>
       <c r="Q4" t="s">
         <v>21</v>
       </c>
       <c r="R4" t="s">
         <v>7</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4">
         <v>2</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4">
         <v>2</v>
       </c>
     </row>
@@ -2048,21 +3732,19 @@
       <c r="K5" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>858.76</v>
       </c>
-      <c r="N5" s="4"/>
       <c r="Q5" t="s">
         <v>13</v>
       </c>
       <c r="R5" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5">
         <v>3</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5">
         <v>3</v>
       </c>
     </row>
@@ -2094,21 +3776,19 @@
       <c r="K6" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6">
         <v>999.5</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
       <c r="Q6" t="s">
         <v>8</v>
       </c>
       <c r="R6" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6">
         <v>8</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6">
         <v>8</v>
       </c>
     </row>
@@ -2140,21 +3820,19 @@
       <c r="K7" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7">
         <v>251.72</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
       <c r="Q7" t="s">
         <v>11</v>
       </c>
       <c r="R7" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7">
         <v>4</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7">
         <v>4</v>
       </c>
     </row>
@@ -2186,21 +3864,19 @@
       <c r="K8" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4">
+      <c r="M8">
         <v>1619.19</v>
       </c>
-      <c r="N8" s="4"/>
       <c r="Q8" t="s">
         <v>20</v>
       </c>
       <c r="R8" t="s">
         <v>10</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8">
         <v>3</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8">
         <v>3</v>
       </c>
     </row>
@@ -2232,21 +3908,19 @@
       <c r="K9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9">
         <v>1305</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
       <c r="Q9" t="s">
         <v>22</v>
       </c>
       <c r="R9" t="s">
         <v>7</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9">
         <v>3</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9">
         <v>3</v>
       </c>
     </row>
@@ -2278,9 +3952,7 @@
       <c r="K10" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
+      <c r="N10">
         <v>139.93</v>
       </c>
       <c r="Q10" t="s">
@@ -2289,10 +3961,10 @@
       <c r="R10" t="s">
         <v>10</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10">
         <v>3</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10">
         <v>3</v>
       </c>
     </row>
@@ -2324,9 +3996,7 @@
       <c r="K11" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
+      <c r="N11">
         <v>1139.43</v>
       </c>
       <c r="Q11" t="s">
@@ -2335,10 +4005,10 @@
       <c r="R11" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11">
         <v>4</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11">
         <v>4</v>
       </c>
     </row>
@@ -2370,21 +4040,19 @@
       <c r="K12" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12">
         <v>625</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
       <c r="Q12" t="s">
         <v>19</v>
       </c>
       <c r="R12" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12">
         <v>2</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12">
         <v>2</v>
       </c>
     </row>
@@ -2416,11 +4084,9 @@
       <c r="K13" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13">
         <v>250</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -2450,9 +4116,7 @@
       <c r="K14" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4">
+      <c r="N14">
         <v>825</v>
       </c>
     </row>
@@ -2484,11 +4148,9 @@
       <c r="K15" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15">
         <v>539.73</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -2518,11 +4180,9 @@
       <c r="K16" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4">
+      <c r="M16">
         <v>479.04</v>
       </c>
-      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -2552,11 +4212,9 @@
       <c r="K17" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4">
+      <c r="M17">
         <v>575.36</v>
       </c>
-      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -2586,11 +4244,9 @@
       <c r="K18" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4">
+      <c r="M18">
         <v>299.85000000000002</v>
       </c>
-      <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -2620,9 +4276,7 @@
       <c r="K19" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4">
+      <c r="N19">
         <v>151.24</v>
       </c>
     </row>
@@ -2654,11 +4308,9 @@
       <c r="K20" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20">
         <v>249.5</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -2688,11 +4340,9 @@
       <c r="K21" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4">
+      <c r="M21">
         <v>565.22</v>
       </c>
-      <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -2722,11 +4372,9 @@
       <c r="K22" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22">
         <v>1484.94</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -2756,11 +4404,9 @@
       <c r="K23" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23">
         <v>686.95</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -2790,11 +4436,9 @@
       <c r="K24" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4">
+      <c r="M24">
         <v>1183.26</v>
       </c>
-      <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -2824,11 +4468,9 @@
       <c r="K25" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25">
         <v>280.59000000000003</v>
       </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -2858,11 +4500,9 @@
       <c r="K26" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26">
         <v>77.400000000000006</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -2892,11 +4532,9 @@
       <c r="K27" t="s">
         <v>13</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27">
         <v>628.74</v>
       </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
@@ -2926,11 +4564,9 @@
       <c r="K28" t="s">
         <v>8</v>
       </c>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4">
+      <c r="M28">
         <v>363.70000000000005</v>
       </c>
-      <c r="N28" s="4"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -2960,11 +4596,9 @@
       <c r="K29" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29">
         <v>449.1</v>
       </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -2994,11 +4628,9 @@
       <c r="K30" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30">
         <v>86.43</v>
       </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -3028,9 +4660,7 @@
       <c r="K31" t="s">
         <v>17</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4">
+      <c r="N31">
         <v>167.44</v>
       </c>
     </row>
@@ -3062,9 +4692,7 @@
       <c r="K32" t="s">
         <v>19</v>
       </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4">
+      <c r="N32">
         <v>63.68</v>
       </c>
     </row>
@@ -3093,13 +4721,13 @@
       <c r="J33" t="s">
         <v>49</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33">
         <v>9047.34</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33">
         <v>6002.09</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33">
         <v>2486.7200000000003</v>
       </c>
     </row>
@@ -3266,5 +4894,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>